--- a/DOCUMENTACIÓN/ELICITACION/12. Backlog/G1-Backlog-V1.0.xlsx
+++ b/DOCUMENTACIÓN/ELICITACION/12. Backlog/G1-Backlog-V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\Documentos\WorkSpace\Universidad\Semestre 4\Modelos de Procesos\Git Hub Grupo 3\JoelRivera_14765_G3_MDSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebas-HP\Documents\QUINTO\PullaguariAxel_14569__G1_IR\DOCUMENTACIÓN\ELICITACION\12. Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9E04F-D0CE-4CE6-A69F-8541E16222BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1E7A90-6432-48BE-BAB4-04AAADFCC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="umbVZyOcx52yre52oR6StKY4AhwVaEfQZSgxcWGFbfY="/>
     </ext>
@@ -30,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
+  <si>
+    <t>ID RF</t>
+  </si>
   <si>
     <t>Tema</t>
   </si>
@@ -53,16 +65,163 @@
     <t>estatus</t>
   </si>
   <si>
+    <t>RF-01</t>
+  </si>
+  <si>
+    <t>Sección información</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>RF-02</t>
+  </si>
+  <si>
+    <t>Sección comentarios</t>
+  </si>
+  <si>
+    <t>Privacidad en los datos de acuerdo al perfl de usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mantener los datos de cada inquilino sin tergiversados, solo la tesorera tenga el control total y el residente solo lectura de los suyos.</t>
+  </si>
+  <si>
+    <t>Verificar la distinta vista</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>RF-03</t>
+  </si>
+  <si>
+    <t>Sección noticias</t>
+  </si>
+  <si>
+    <t>Registrar los datos de los residentes</t>
+  </si>
+  <si>
+    <t>Mantener la constancia de los pagos realizados por los residentes.</t>
+  </si>
+  <si>
+    <t>RF-04</t>
+  </si>
+  <si>
+    <t>Catálogo de productos</t>
+  </si>
+  <si>
+    <t>Debo poder hacer consulta de datos acerca de los residentes y ver mis datos si soy residente.</t>
+  </si>
+  <si>
+    <t>Para verificar con el cumplimiento de los pagos de cada residente si soy administrador y ver mi historial de pagos corroborando la informacion si soy un residente.</t>
+  </si>
+  <si>
+    <t>RF-05</t>
+  </si>
+  <si>
+    <t>Búsqueda de producto</t>
+  </si>
+  <si>
+    <t>Eliminar la información obsoleta referente al residente</t>
+  </si>
+  <si>
+    <t>Evitar la carga de datos innecesaria</t>
+  </si>
+  <si>
+    <t>RF-06</t>
+  </si>
+  <si>
+    <t>Sección contacto</t>
+  </si>
+  <si>
+    <t>Actualizar y/o modificar los datos de algun residente</t>
+  </si>
+  <si>
+    <t>Tener el estado económico al día y correcto</t>
+  </si>
+  <si>
+    <t>RF-07</t>
+  </si>
+  <si>
+    <t>Login de administrador</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Mantener actualizados los contactos de los servicios que se brindan en la Urbanización y encontrarlos de manera sencilla</t>
+  </si>
+  <si>
+    <t>RF-08</t>
+  </si>
+  <si>
+    <t>Insertar productos en el catálogo</t>
+  </si>
+  <si>
+    <t>RF-09</t>
+  </si>
+  <si>
+    <t>Eliminar productos del catálogo</t>
+  </si>
+  <si>
+    <t>RF-10</t>
+  </si>
+  <si>
+    <t>Modificar información de productos del catálogo</t>
+  </si>
+  <si>
+    <t>RF-11</t>
+  </si>
+  <si>
+    <t>Insertar noticias</t>
+  </si>
+  <si>
+    <t>RF-12</t>
+  </si>
+  <si>
+    <t>Eliminar noticias</t>
+  </si>
+  <si>
+    <t>RF-13</t>
+  </si>
+  <si>
+    <t>Modificar información de noticias</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Necesito</t>
+  </si>
+  <si>
+    <t>así podre...</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>REQ001</t>
   </si>
   <si>
-    <t>Inicio de Sesión</t>
-  </si>
-  <si>
-    <t>Administrador/residente</t>
-  </si>
-  <si>
-    <t>Ingresar al sistema</t>
+    <t>Crear cuenta de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Personal(residente)/Administrador(Tesorero)</t>
+  </si>
+  <si>
+    <t>Crear usuario y contraseña</t>
   </si>
   <si>
     <t>Iniciar sesión y realizar las respectivas acciones de gestion.</t>
@@ -71,10 +230,40 @@
     <t>Cada tipo de usuario tiene su respectivo apartado de trabajo.</t>
   </si>
   <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Terminado</t>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
+    <t>REQ001-1</t>
+  </si>
+  <si>
+    <t>Crear pagina de inicio de sesión.</t>
+  </si>
+  <si>
+    <t>Lindsay Barrionuevo</t>
+  </si>
+  <si>
+    <t>REQ001-2</t>
+  </si>
+  <si>
+    <t>Registro de cuentas en la base de datos.</t>
+  </si>
+  <si>
+    <t>REQ001-3</t>
+  </si>
+  <si>
+    <t>Confirmacion de registro de cuentas</t>
+  </si>
+  <si>
+    <t>Suma</t>
   </si>
   <si>
     <t>REQ002</t>
@@ -86,16 +275,22 @@
     <t>Administrador/Residente</t>
   </si>
   <si>
-    <t>Privacidad en los datos de acuerdo al perfl de usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mantener los datos de cada inquilino sin tergiversados, solo la tesorera tenga el control total y el residente solo lectura de los suyos.</t>
-  </si>
-  <si>
-    <t>Verificar la distinta vista</t>
-  </si>
-  <si>
-    <t>Alta</t>
+    <t>REQ002-1</t>
+  </si>
+  <si>
+    <t>Crear apartado de administrador.</t>
+  </si>
+  <si>
+    <t>REQ002-2</t>
+  </si>
+  <si>
+    <t>Crear apartado de residente.</t>
+  </si>
+  <si>
+    <t>REQ002-3</t>
+  </si>
+  <si>
+    <t>Validar el direccionamiento segun el tipo de usuario.</t>
   </si>
   <si>
     <t>REQ003</t>
@@ -104,160 +299,31 @@
     <t>Ingreso de datos de residentes</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Registrar los datos de los residentes</t>
-  </si>
-  <si>
-    <t>Mantener la constancia de los pagos realizados por los residentes.</t>
+    <t>REQ003-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear apartado de ingreso </t>
+  </si>
+  <si>
+    <t>Joel Rivera</t>
+  </si>
+  <si>
+    <t>REQ003-2</t>
+  </si>
+  <si>
+    <t>Crear formulario de ingreso residente</t>
+  </si>
+  <si>
+    <t>REQ003-3</t>
+  </si>
+  <si>
+    <t>Crear formulario de ingreso pago</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
   </si>
   <si>
     <t>REQ004</t>
-  </si>
-  <si>
-    <t>Busqueda de información de residentes</t>
-  </si>
-  <si>
-    <t>Debo poder hacer consulta de datos acerca de los residentes y ver mis datos si soy residente.</t>
-  </si>
-  <si>
-    <t>Para verificar con el cumplimiento de los pagos de cada residente si soy administrador y ver mi historial de pagos corroborando la informacion si soy un residente.</t>
-  </si>
-  <si>
-    <t>REQ005</t>
-  </si>
-  <si>
-    <t>Eliminación de informacion de residentes</t>
-  </si>
-  <si>
-    <t>Eliminar la información obsoleta referente al residente</t>
-  </si>
-  <si>
-    <t>Evitar la carga de datos innecesaria</t>
-  </si>
-  <si>
-    <t>REQ006</t>
-  </si>
-  <si>
-    <t>Edicion de informacion de residentes</t>
-  </si>
-  <si>
-    <t>Actualizar y/o modificar los datos de algun residente</t>
-  </si>
-  <si>
-    <t>Tener el estado económico al día y correcto</t>
-  </si>
-  <si>
-    <t>REQ007</t>
-  </si>
-  <si>
-    <t>Gestion de Soportes</t>
-  </si>
-  <si>
-    <t>Un apartado que me permita gestionar los nuevos contactos de los servicios de la Urbanización a manera de soporte</t>
-  </si>
-  <si>
-    <t>Mantener actualizados los contactos de los servicios que se brindan en la Urbanización y encontrarlos de manera sencilla</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Necesito</t>
-  </si>
-  <si>
-    <t>así podre...</t>
-  </si>
-  <si>
-    <t>Prioridad</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Crear cuenta de inicio de sesión</t>
-  </si>
-  <si>
-    <t>Personal(residente)/Administrador(Tesorero)</t>
-  </si>
-  <si>
-    <t>Crear usuario y contraseña</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Tareas</t>
-  </si>
-  <si>
-    <t>Asignado</t>
-  </si>
-  <si>
-    <t>Estimado</t>
-  </si>
-  <si>
-    <t>REQ001-1</t>
-  </si>
-  <si>
-    <t>Crear pagina de inicio de sesión.</t>
-  </si>
-  <si>
-    <t>Lindsay Barrionuevo</t>
-  </si>
-  <si>
-    <t>REQ001-2</t>
-  </si>
-  <si>
-    <t>Registro de cuentas en la base de datos.</t>
-  </si>
-  <si>
-    <t>REQ001-3</t>
-  </si>
-  <si>
-    <t>Confirmacion de registro de cuentas</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>REQ002-1</t>
-  </si>
-  <si>
-    <t>Crear apartado de administrador.</t>
-  </si>
-  <si>
-    <t>REQ002-2</t>
-  </si>
-  <si>
-    <t>Crear apartado de residente.</t>
-  </si>
-  <si>
-    <t>REQ002-3</t>
-  </si>
-  <si>
-    <t>Validar el direccionamiento segun el tipo de usuario.</t>
-  </si>
-  <si>
-    <t>REQ003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear apartado de ingreso </t>
-  </si>
-  <si>
-    <t>Joel Rivera</t>
-  </si>
-  <si>
-    <t>REQ003-2</t>
-  </si>
-  <si>
-    <t>Crear formulario de ingreso residente</t>
-  </si>
-  <si>
-    <t>REQ003-3</t>
-  </si>
-  <si>
-    <t>Crear formulario de ingreso pago</t>
   </si>
   <si>
     <t>Búsqueda de Información de residentes</t>
@@ -291,6 +357,12 @@
     <t>Validar la lectura por la Base de Datos.</t>
   </si>
   <si>
+    <t>REQ005</t>
+  </si>
+  <si>
+    <t>Eliminación de informacion de residentes</t>
+  </si>
+  <si>
     <t>REQ005-1</t>
   </si>
   <si>
@@ -318,6 +390,15 @@
     <t>Validar la eliminacion por la Base de Datos.</t>
   </si>
   <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>Edicion de informacion de residentes</t>
+  </si>
+  <si>
     <t>REQ006-1</t>
   </si>
   <si>
@@ -331,6 +412,9 @@
   </si>
   <si>
     <t>2. Actualizar automáticamente a la Base de Datos.</t>
+  </si>
+  <si>
+    <t>REQ007</t>
   </si>
   <si>
     <t>Ingreso de Soportes</t>
@@ -400,29 +484,144 @@
 Restantes</t>
   </si>
   <si>
-    <t>SPRINT 1</t>
-  </si>
-  <si>
-    <t>SPRINT 2</t>
-  </si>
-  <si>
-    <t>SPRINT 3</t>
-  </si>
-  <si>
     <t>Al completar el Sprint 3, se ha cumplido en su totalidad con los requisitos funcionales, en el cual podemos apreciar que inicialmente se mantuvo un tenue retraso del desarrollo, sin embargo, se soluciona entre el tercer y cuarto día. En los siguientes días apreciamos un adelanto, es decir, el ritmo de trabajo incremetó. Finalmente, las horas son compensadas, culminando en el último día con las horas de trabajo estimadas, percatándonos qué para lograr cumplir con éxito el desarrollo, el avance de horas ha sido mayor al estimado.</t>
   </si>
   <si>
     <t xml:space="preserve">Al analizar nuestro ritmo de trabajo más detalladamente, se recomienda llevar un mayor control con el avance de las horas trabajadas, ya que así nuestro trabajo se vería lo más cercano a las horas estimadas (línea roja) llevando un ritmo prolijo, incluso sin necesidad de compensar horas extras por un retraso inicial. </t>
   </si>
   <si>
-    <t>ID RF</t>
+    <t>Permitir realizar la búsqueda por elementos
+coincidentes en el catálogo de productos en la página de catálogo
+cuando un visitante seleccione el botón de “buscar” en el catálogo</t>
+  </si>
+  <si>
+    <t>No iniciado</t>
+  </si>
+  <si>
+    <t>Asegurar contenido visual atractivo</t>
+  </si>
+  <si>
+    <t>Actualizar periódicamente</t>
+  </si>
+  <si>
+    <t>Asegurar categorización clara</t>
+  </si>
+  <si>
+    <t>Implementar filtros y ordenamiento</t>
+  </si>
+  <si>
+    <t>Incluir formulario amigable</t>
+  </si>
+  <si>
+    <t>Verificar seguridad del login</t>
+  </si>
+  <si>
+    <t>Revisar formatos de ingreso</t>
+  </si>
+  <si>
+    <t>Verificar no afectar enlaces</t>
+  </si>
+  <si>
+    <t>Incluir opción de edición rápida</t>
+  </si>
+  <si>
+    <t>Programar publicaciones</t>
+  </si>
+  <si>
+    <t>Asegurar archivo de noticias</t>
+  </si>
+  <si>
+    <t>Revisar antes de publicar cambios</t>
+  </si>
+  <si>
+    <t>Verificar la autenticidad de los comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observar informacion relevante y atractiva </t>
+  </si>
+  <si>
+    <t>Observar  los comentarios hechos por los visitantes
+sobre “Home Passion”</t>
+  </si>
+  <si>
+    <t>Observar  las noticias, eventos, posts y
+acontecimientos recientes por “Home Passion”</t>
+  </si>
+  <si>
+    <t>Observar un catálogo organizado por categorías de
+los productos de “Home Passion</t>
+  </si>
+  <si>
+    <t>Enviar correos por medio de
+la página al administrador desde la sección de “contacto”</t>
+  </si>
+  <si>
+    <t>Ingresar al sistema
+desde la sección de “Acceder”</t>
+  </si>
+  <si>
+    <t>Añadir productos del
+catálogo de productos</t>
+  </si>
+  <si>
+    <t>Eliminar productos del
+catálogo de productos</t>
+  </si>
+  <si>
+    <t>Modificar productos del
+catálogo de productos</t>
+  </si>
+  <si>
+    <t>Añadir noticias</t>
+  </si>
+  <si>
+    <t>Modificar noticias</t>
+  </si>
+  <si>
+    <t>Mantenerme informado sobre las últimas novedades y datos interesantes de "Home Passion".</t>
+  </si>
+  <si>
+    <t>Conocer las opiniones y experiencias de otros usuarios acerca de "Home Passion".</t>
+  </si>
+  <si>
+    <t>Estar al día con los eventos y actualizaciones importantes relacionadas con "Home Passion".</t>
+  </si>
+  <si>
+    <t>Encontrar fácilmente los productos que estoy buscando dentro de las distintas categorías disponibles.</t>
+  </si>
+  <si>
+    <t>Encontrar rápidamente productos específicos utilizando el buscador del catálogo.</t>
+  </si>
+  <si>
+    <t>Comunicarme fácilmente con el administrador para resolver dudas o solicitar información adicional.</t>
+  </si>
+  <si>
+    <t>Gestionar y administrar el contenido del sitio web y realizar modificaciones necesarias.</t>
+  </si>
+  <si>
+    <t>Actualizar el catálogo de productos con nuevas entradas, manteniendo el contenido actualizado y relevante.</t>
+  </si>
+  <si>
+    <t>Mantener el catálogo actualizado eliminando productos que ya no están disponibles o son relevantes.</t>
+  </si>
+  <si>
+    <t>Corregir o actualizar la información de los productos existentes para asegurar la precisión y relevancia de los datos.</t>
+  </si>
+  <si>
+    <t>Mantener a los usuarios informados sobre las últimas novedades y eventos de "Home Passion".</t>
+  </si>
+  <si>
+    <t>Gestionar el contenido de la sección de noticias, eliminando información obsoleta o incorrecta.</t>
+  </si>
+  <si>
+    <t>Actualizar y corregir la información en las noticias existentes para asegurar la precisión y relevancia de los datos publicados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -517,6 +716,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -574,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -632,11 +848,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,32 +989,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -745,57 +998,112 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,7 +1332,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2087969067"/>
@@ -1100,7 +1408,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="416555524"/>
@@ -1123,7 +1431,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1389,7 +1697,9 @@
   </sheetPr>
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1403,232 +1713,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
-        <v>127</v>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="B3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="H3" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="B4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="B5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="C5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="C6" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="C7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="C8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="D8" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="59" t="s">
+      <c r="C9" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C10" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,12 +3180,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{496956D9-A575-4F9C-88CB-09F018B94BDA}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H23" xr:uid="{496956D9-A575-4F9C-88CB-09F018B94BDA}">
       <formula1>$L$19:$L$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2631,99 +3213,99 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="A2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+        <v>67</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="7">
@@ -2732,16 +3314,16 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="7">
@@ -2750,16 +3332,16 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+        <v>72</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -2768,7 +3350,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H9" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <f>SUM(I6:I8)</f>
@@ -2777,81 +3359,81 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="8">
@@ -2860,13 +3442,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="8">
@@ -2875,13 +3457,13 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
@@ -2896,7 +3478,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="26" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I16" s="27">
         <f>SUM(I13:I15)</f>
@@ -2905,74 +3487,74 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I20" s="9">
         <v>1</v>
@@ -2980,13 +3562,13 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
@@ -2994,13 +3576,13 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I22" s="9">
         <v>3</v>
@@ -3008,7 +3590,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I23">
         <f>SUM(I20:I22)</f>
@@ -3017,89 +3599,89 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
+      <c r="A25" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9">
         <v>2</v>
@@ -3107,13 +3689,13 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9">
         <v>2</v>
@@ -3121,13 +3703,13 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9">
         <v>2</v>
@@ -3135,13 +3717,13 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -3149,7 +3731,7 @@
     </row>
     <row r="33" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I33">
         <f>SUM(I29:I32)</f>
@@ -3158,74 +3740,74 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>24</v>
+        <v>106</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9">
         <v>2</v>
@@ -3233,13 +3815,13 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9">
         <v>2</v>
@@ -3247,13 +3829,13 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I39" s="9">
         <v>4</v>
@@ -3261,13 +3843,13 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -3275,7 +3857,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H41" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I41">
         <f>SUM(I37:I40)</f>
@@ -3284,89 +3866,89 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
+      <c r="A43" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9">
         <v>4</v>
@@ -3374,13 +3956,13 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9">
         <v>3</v>
@@ -3397,7 +3979,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H51" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I51">
         <f>SUM(I47:I50)</f>
@@ -3409,74 +3991,74 @@
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="29" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>24</v>
+        <v>125</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I56" s="9">
         <v>3</v>
@@ -3484,13 +4066,13 @@
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I57" s="9">
         <v>3</v>
@@ -3498,13 +4080,13 @@
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>107</v>
+        <v>131</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9">
         <v>2</v>
@@ -3512,13 +4094,13 @@
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -3526,13 +4108,13 @@
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -3540,7 +4122,7 @@
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I61">
         <f>SUM(I56:I59)</f>
@@ -3556,7 +4138,7 @@
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H65" s="25" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I65">
         <f>I9+I16+I23+I33+I41</f>
@@ -4540,33 +5122,33 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -4596,7 +5178,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C5" s="16">
         <v>2</v>
@@ -4626,7 +5208,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -4656,7 +5238,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C7" s="18">
         <v>2</v>
@@ -4686,7 +5268,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
@@ -4716,7 +5298,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
@@ -4746,7 +5328,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
@@ -4776,7 +5358,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -4806,7 +5388,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C12" s="19">
         <v>3</v>
@@ -4829,7 +5411,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4837,9 +5419,9 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="43">
+        <v>97</v>
+      </c>
+      <c r="C13" s="35">
         <v>2</v>
       </c>
       <c r="D13">
@@ -4868,9 +5450,9 @@
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="43">
+        <v>99</v>
+      </c>
+      <c r="C14" s="35">
         <v>2</v>
       </c>
       <c r="D14">
@@ -4899,9 +5481,9 @@
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="43">
+        <v>101</v>
+      </c>
+      <c r="C15" s="35">
         <v>2</v>
       </c>
       <c r="D15" s="9">
@@ -4928,9 +5510,9 @@
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="44">
+        <v>103</v>
+      </c>
+      <c r="C16" s="36">
         <v>3</v>
       </c>
       <c r="D16">
@@ -4959,7 +5541,7 @@
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
@@ -4990,7 +5572,7 @@
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
@@ -5021,7 +5603,7 @@
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9">
         <v>4</v>
@@ -5052,7 +5634,7 @@
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -5083,7 +5665,7 @@
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9">
         <v>4</v>
@@ -5114,7 +5696,7 @@
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C22" s="9">
         <v>3</v>
@@ -5145,7 +5727,7 @@
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9">
         <v>3</v>
@@ -5176,7 +5758,7 @@
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9">
         <v>3</v>
@@ -5207,7 +5789,7 @@
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C25" s="9">
         <v>2</v>
@@ -5238,7 +5820,7 @@
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5269,7 +5851,7 @@
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -5312,12 +5894,12 @@
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="L30" s="55"/>
+      <c r="L30" s="38"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="L31" s="55"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -5328,7 +5910,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C34" s="3">
         <f>SUM(C4:C27)</f>
@@ -5361,33 +5943,33 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3">
         <f>SUM(C4:C27)</f>
         <v>56</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="40">
         <f>C35-($C35/6)</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="37">
         <f t="shared" ref="E35:H35" si="4">D35-($C35/6)</f>
         <v>37.333333333333329</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="37">
         <f t="shared" si="4"/>
         <v>27.999999999999993</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="37">
         <f t="shared" si="4"/>
         <v>18.666666666666657</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="37">
         <f t="shared" si="4"/>
         <v>9.3333333333333233</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="37">
         <f>H35-($C35/6)</f>
         <v>0</v>
       </c>
@@ -5395,157 +5977,157 @@
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="K39" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="L39" s="68"/>
+      <c r="B39" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="K39" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="67"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="67"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
+      <c r="B40" s="66"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="67"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
+      <c r="B41" s="66"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="67"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
+      <c r="B42" s="66"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="67"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
+      <c r="B43" s="66"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="67"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
+      <c r="B44" s="66"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="67"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
+      <c r="B45" s="66"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
+      <c r="B46" s="66"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="67"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
+      <c r="B47" s="66"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="67"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
+      <c r="B48" s="66"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="67"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
+      <c r="B49" s="66"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
     </row>
     <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="67"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
+      <c r="B50" s="66"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="67"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
+      <c r="B51" s="66"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="67"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
+      <c r="B52" s="66"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="67"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
+      <c r="B53" s="66"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="67"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
+      <c r="B54" s="66"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="62"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="62"/>
+      <c r="B57" s="43"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="62"/>
+      <c r="B58" s="43"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="62"/>
+      <c r="B59" s="43"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="62"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="62"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="62"/>
+      <c r="B62" s="43"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="62"/>
+      <c r="B63" s="43"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="62"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="62"/>
+      <c r="B65" s="43"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="62"/>
+      <c r="B66" s="43"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="62"/>
+      <c r="B67" s="43"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="62"/>
+      <c r="B68" s="43"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="62"/>
+      <c r="B69" s="43"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DOCUMENTACIÓN/ELICITACION/12. Backlog/G1-Backlog-V1.0.xlsx
+++ b/DOCUMENTACIÓN/ELICITACION/12. Backlog/G1-Backlog-V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebas-HP\Documents\QUINTO\PullaguariAxel_14569__G1_IR\DOCUMENTACIÓN\ELICITACION\12. Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\SEPTIMO SEMESTRE MAYO 24 - SEPTIEMBRE 24\14569 ING REQUISITOS SW\PullaguariAxel_14569__G1_IR\DOCUMENTACIÓN\ELICITACION\12. Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1E7A90-6432-48BE-BAB4-04AAADFCC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E13F1-0F78-4689-A217-4AFFC44763A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="umbVZyOcx52yre52oR6StKY4AhwVaEfQZSgxcWGFbfY="/>
     </ext>
@@ -490,11 +481,6 @@
     <t xml:space="preserve">Al analizar nuestro ritmo de trabajo más detalladamente, se recomienda llevar un mayor control con el avance de las horas trabajadas, ya que así nuestro trabajo se vería lo más cercano a las horas estimadas (línea roja) llevando un ritmo prolijo, incluso sin necesidad de compensar horas extras por un retraso inicial. </t>
   </si>
   <si>
-    <t>Permitir realizar la búsqueda por elementos
-coincidentes en el catálogo de productos en la página de catálogo
-cuando un visitante seleccione el botón de “buscar” en el catálogo</t>
-  </si>
-  <si>
     <t>No iniciado</t>
   </si>
   <si>
@@ -615,6 +601,11 @@
   </si>
   <si>
     <t>Actualizar y corregir la información en las noticias existentes para asegurar la precisión y relevancia de los datos publicados.</t>
+  </si>
+  <si>
+    <t>Realizar la búsqueda por elementos
+coincidentes en el catálogo de productos en la página de catálogo
+cuando seleccione el botón de “buscar” en el catálogo</t>
   </si>
 </sst>
 </file>
@@ -913,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,25 +1042,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1104,6 +1082,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +1320,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2087969067"/>
@@ -1408,7 +1396,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="416555524"/>
@@ -1431,7 +1419,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1698,21 +1686,21 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="26" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="55.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1722,13 +1710,13 @@
       <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="51" t="s">
@@ -1739,7 +1727,7 @@
       </c>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
@@ -1749,24 +1737,24 @@
       <c r="C2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>150</v>
+      <c r="H2" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
@@ -1776,24 +1764,24 @@
       <c r="C3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="61" t="s">
+      <c r="D3" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>150</v>
+      <c r="H3" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
@@ -1803,24 +1791,24 @@
       <c r="C4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>166</v>
+      <c r="D4" s="63" t="s">
+        <v>165</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>150</v>
+      <c r="H4" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
@@ -1830,267 +1818,267 @@
       <c r="C5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>167</v>
+      <c r="D5" s="64" t="s">
+        <v>166</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="60" t="s">
-        <v>150</v>
+      <c r="H5" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>150</v>
-      </c>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>168</v>
+      <c r="D7" s="65" t="s">
+        <v>167</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="59" t="s">
-        <v>150</v>
+      <c r="H7" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>169</v>
+      <c r="C8" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>168</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="59" t="s">
-        <v>150</v>
+      <c r="H8" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>170</v>
+      <c r="C9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>169</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>150</v>
+      <c r="H9" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="59" t="s">
+      <c r="C10" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="59" t="s">
-        <v>150</v>
+      <c r="H10" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>172</v>
+      <c r="C11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>171</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="59" t="s">
-        <v>150</v>
+      <c r="H11" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>173</v>
+      <c r="C12" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="59" t="s">
-        <v>150</v>
+      <c r="H12" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="59" t="s">
+      <c r="C13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="59" t="s">
-        <v>150</v>
+      <c r="H13" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>174</v>
+      <c r="C14" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>173</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="59" t="s">
-        <v>150</v>
+      <c r="H14" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
@@ -2101,7 +2089,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
@@ -2112,7 +2100,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
@@ -2123,7 +2111,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
@@ -2134,7 +2122,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
@@ -2145,7 +2133,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
@@ -2156,7 +2144,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
       <c r="C21" s="47"/>
@@ -2167,7 +2155,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
@@ -2178,7 +2166,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
       <c r="C23" s="47"/>
@@ -2189,7 +2177,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -2200,984 +2188,984 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H23" xr:uid="{496956D9-A575-4F9C-88CB-09F018B94BDA}">
@@ -3200,19 +3188,19 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="26" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="79.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>51</v>
       </c>
@@ -3226,7 +3214,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
@@ -3252,7 +3240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
@@ -3278,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
         <v>64</v>
@@ -3294,16 +3282,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3312,16 +3300,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3" t="s">
         <v>69</v>
       </c>
@@ -3330,16 +3318,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="3" t="s">
         <v>69</v>
       </c>
@@ -3348,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="25" t="s">
         <v>74</v>
       </c>
@@ -3357,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
@@ -3409,7 +3397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
         <v>64</v>
@@ -3425,7 +3413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>78</v>
       </c>
@@ -3440,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
@@ -3455,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>82</v>
       </c>
@@ -3470,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3485,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
@@ -3511,7 +3499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
@@ -3535,7 +3523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
@@ -3546,7 +3534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
@@ -3560,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>89</v>
       </c>
@@ -3574,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
@@ -3588,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="25" t="s">
         <v>74</v>
       </c>
@@ -3597,8 +3585,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>93</v>
       </c>
@@ -3612,7 +3600,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3638,7 +3626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>94</v>
       </c>
@@ -3662,7 +3650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>64</v>
       </c>
@@ -3673,7 +3661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
@@ -3687,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
@@ -3701,7 +3689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>101</v>
       </c>
@@ -3715,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>103</v>
       </c>
@@ -3729,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="25" t="s">
         <v>74</v>
       </c>
@@ -3738,7 +3726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3764,7 +3752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>105</v>
       </c>
@@ -3788,7 +3776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
@@ -3799,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>107</v>
       </c>
@@ -3813,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
@@ -3827,7 +3815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
@@ -3855,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="25" t="s">
         <v>74</v>
       </c>
@@ -3864,8 +3852,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
         <v>116</v>
       </c>
@@ -3879,7 +3867,7 @@
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
@@ -3905,7 +3893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>117</v>
       </c>
@@ -3929,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>64</v>
       </c>
@@ -3940,7 +3928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>119</v>
       </c>
@@ -3954,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>122</v>
       </c>
@@ -3968,16 +3956,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="G49" s="4"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H51" s="25" t="s">
         <v>74</v>
       </c>
@@ -3986,10 +3974,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
@@ -4015,7 +4003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>124</v>
       </c>
@@ -4039,7 +4027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>127</v>
       </c>
@@ -4064,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>129</v>
       </c>
@@ -4078,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>131</v>
       </c>
@@ -4092,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>133</v>
       </c>
@@ -4106,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>135</v>
       </c>
@@ -4120,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H61" s="25" t="s">
         <v>74</v>
       </c>
@@ -4129,14 +4117,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H63" s="25"/>
     </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H65" s="25" t="s">
         <v>137</v>
       </c>
@@ -4145,948 +4133,948 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C6:F6"/>
@@ -5109,17 +5097,17 @@
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="27" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="27" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>66</v>
@@ -5146,7 +5134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
@@ -5176,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>70</v>
       </c>
@@ -5206,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>78</v>
       </c>
@@ -5266,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
@@ -5296,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>82</v>
       </c>
@@ -5326,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>86</v>
       </c>
@@ -5356,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
@@ -5386,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
@@ -5416,7 +5404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>97</v>
@@ -5447,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>99</v>
@@ -5478,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>101</v>
@@ -5507,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>103</v>
@@ -5538,7 +5526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
@@ -5569,7 +5557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>110</v>
@@ -5600,7 +5588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>112</v>
@@ -5631,7 +5619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>114</v>
@@ -5662,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>119</v>
@@ -5693,7 +5681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>122</v>
@@ -5724,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>127</v>
@@ -5755,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>129</v>
@@ -5786,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>131</v>
@@ -5817,7 +5805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>133</v>
@@ -5848,7 +5836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>135</v>
@@ -5879,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="J28">
@@ -5887,28 +5875,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="L30" s="38"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>145</v>
       </c>
@@ -5941,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>146</v>
       </c>
@@ -5974,1116 +5962,1116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="66" t="s">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="76" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
-      <c r="K39" s="67" t="s">
+      <c r="K39" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="L39" s="67"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="66"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="76"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="66"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="76"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="66"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="76"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="66"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="76"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="66"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="76"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="66"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="76"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="66"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="76"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="66"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="76"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="66"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="76"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-    </row>
-    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="66"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="76"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="66"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="76"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="66"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="76"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="66"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="76"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="66"/>
+    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="76"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="66"/>
+    <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="76"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="43"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="43"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="43"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="43"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="43"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="43"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B39:B54"/>
